--- a/BackTest/2020-01-21 BackTest ETH.xlsx
+++ b/BackTest/2020-01-21 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>617.0723356528115</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>617.0723356528115</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>612.4285356528114</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>722.4399356528114</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>683.2305356528115</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>806.9872621156476</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>806.0552621156476</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>778.6958621156475</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>776.6476621156476</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>751.8472621156476</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>751.8472621156476</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>751.8707256848134</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>741.9842256848134</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>742.4580256848134</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>742.4580256848134</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>734.5976256848134</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>734.5976256848134</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>734.5976256848134</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>737.8292256848133</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>738.8538256848133</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>728.8538256848133</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>728.8538256848133</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>708.7411256848133</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>709.5192256848133</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>709.5192256848133</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>709.5192256848133</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>709.5192256848133</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>709.5192256848133</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>684.3077566170166</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>604.0708566170166</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>608.1435566170167</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>605.8274566170167</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>604.1549566170166</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>614.1549566170166</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>673.7469393756373</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>652.5469393756373</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>642.3768393756372</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>642.3768393756372</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>964.3214225759754</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>968.3313225759754</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>978.3761225759754</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>978.3761225759754</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>961.2396225759754</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>969.7083225759754</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>748.5492236319417</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>667.5229236319417</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>667.5229236319417</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>669.1049236319417</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>467.5191559817836</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>480.5341559817836</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>493.6821844477825</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>494.4861844477825</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>421.0651844477825</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>421.9764844477825</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>404.6907844477824</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>515.6424844477824</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>505.7595844477824</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>507.6615844477824</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>531.9024844477824</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>534.7136844477824</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>514.1417844477824</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>515.6524844477823</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>690.2565844477823</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>691.8565844477823</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>612.7786844477823</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>614.4581844477823</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>569.0405983731632</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>564.4940983731633</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>446.6019983731633</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>252.4279983731633</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-220.8598016268367</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-163.6363016268367</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-196.9510016268367</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-196.9510016268367</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-199.3832016268367</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-199.3832016268367</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-180.3467016268367</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-180.3467016268367</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-144.6055016268367</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-151.4763016268367</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-146.8295016268367</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-146.8295016268367</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-116.8295016268367</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-260.0208016268367</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-230.0208016268367</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-257.5208016268367</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-257.5208016268367</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-252.3098016268367</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-252.3098016268367</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-259.9453016268367</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-475.3041016268367</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-391.6086016268367</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-395.6272016268367</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-395.6272016268367</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-410.0287016268367</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-451.3167016268367</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-428.8255016268367</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-428.5258016268368</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-434.7084016268367</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-469.9270016268367</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-469.9270016268367</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-469.9270016268367</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-585.6650016268368</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-682.4309016268368</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-687.7982016268368</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-666.8830016268367</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-666.5599016268368</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-666.5599016268368</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-666.5599016268368</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-666.5599016268368</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-668.5729016268368</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-668.5729016268368</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-754.2634016268369</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-750.0498016268368</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-679.4010016268369</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-685.4537016268368</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-659.0792016268368</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-689.0698248335879</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-684.4130248335879</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-688.4088248335879</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-687.3501646859864</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-671.6566248335879</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-696.5202248335879</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-702.0155252027862</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-691.0286031385418</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-697.6385031385419</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-695.5355031385419</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-691.5355031385419</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-692.0355031385419</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-692.0355031385419</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-692.0355031385419</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-579.158903138542</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-567.2917031385419</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-567.2917031385419</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-535.345103138542</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-535.345103138542</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-553.185803138542</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-508.9403533747625</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-532.3761533747625</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-488.5732533747624</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-467.8534533747624</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-423.2927533747624</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-463.4347946745528</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-648.4056207478512</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-655.9056207478512</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-695.5711207478512</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-744.8663207478512</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-633.2268207478512</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-670.7453207478512</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-650.1215207478513</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-650.1215207478513</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-650.1215207478513</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-666.9020207478512</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-632.1826207478513</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-560.9430207478513</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-638.9970207478513</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-674.4370207478512</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-683.866720746968</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-710.741220746968</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-588.3664562334145</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-619.7411562334145</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-747.0781562334145</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-949.7349562334144</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1060.682756233414</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1060.682756233414</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1036.835856233414</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1036.835856233414</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1030.693956233414</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1055.244608476158</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1055.244608476158</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1066.296808476159</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1066.296808476159</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1000.426508476158</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1000.426508476158</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1326.928108476159</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1326.928108476159</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1265.811608476158</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1245.907808476158</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1266.907808476158</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1248.457608476158</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1248.440608476158</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1250.066308476158</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1281.791708476158</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1281.991708476158</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1358.483608476158</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1358.483608476158</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1356.886108476158</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1449.278808476158</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1449.278808476158</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1449.278808476158</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1453.847908476158</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1446.938508476158</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1656.938508476158</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1643.887408476158</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1643.887408476158</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1643.887408476158</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1643.290608476158</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1748.340367778484</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1748.340367778484</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1748.350367778484</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1744.858167778484</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1744.858167778484</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>1653.770108435818</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>1653.770108435818</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>1652.250608435817</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>1652.250608435817</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>1656.723408435817</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>1635.686708435817</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>1638.024408435817</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>1638.024408435817</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>1638.024408435817</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>1615.570408435817</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>1730.689296848516</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>1857.268496320811</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>1857.517496320811</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>1831.898696320811</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>1831.898696320811</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>1831.898696320811</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>1831.898696320811</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>1827.123496320811</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>1827.123496320811</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>1828.450196320811</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>1828.450196320811</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>1828.450196320811</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>1814.459596320811</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>1796.756096320811</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>1621.265996320811</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>1621.265996320811</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>1621.265996320811</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>1632.053696320811</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>1632.053696320811</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>1632.053696320811</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>1627.053696320811</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>1627.053696320811</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>1584.998896320811</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>1602.930312193827</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>1477.838612193827</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>1478.130312193827</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>1448.513012193827</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>1418.276612193827</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>1283.583812193827</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>1287.583812193827</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>1720.944812193827</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>1649.468160717505</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>1916.784460717505</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>1893.476560717505</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>1894.725560717505</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>1894.725560717505</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>1890.418760717505</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>1891.562060717505</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>1893.475360717506</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>1877.598760717505</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>1877.598760717505</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>1880.892660717505</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>1899.409460717505</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>1898.965360717505</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>1903.579560717505</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>1867.513660717505</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>1879.051160717505</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>1816.860760717505</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>1834.099160717505</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>1829.049160717505</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>1850.543260717505</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>1845.840460717505</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>1864.550460717505</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>1864.550460717505</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>1864.550460717505</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>1893.898460717505</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>1893.898460717505</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>1942.316760717505</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>1942.761560717505</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>1889.207362512648</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>1889.207362512648</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>1883.575462512648</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>1884.675562512648</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>1884.675562512648</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>1884.686122174739</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>1877.956722174739</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>1880.394622174739</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>1900.247422174739</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>1900.247422174739</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>1904.362522174739</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>1900.789922174739</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>1930.787062776639</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>1926.48866277664</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>1926.48866277664</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>2023.062362776639</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>2019.57846277664</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>2026.005262776639</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>2017.94526277664</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>2051.36186277664</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>2145.963778144839</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>2137.723778144839</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>2466.02342551326</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>2509.770046565892</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>2499.891250403957</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>2489.352750403957</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>2373.941100066155</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>2358.915314690037</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>2328.943814690037</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>2329.095214690038</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>2364.193914690038</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>2354.618714690037</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>2343.622114690038</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>2336.143614690037</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>2379.649914690037</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>2408.149214690038</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>2205.287314690038</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>2194.412314690038</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>2207.845714690038</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>2185.659714690038</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>2128.458614690038</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>2125.433714690038</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>1880.709814690038</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>1795.885814690038</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>1795.885814690038</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>1813.985614690038</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>1758.774414690038</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>1758.774414690038</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>1763.042214690038</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>1762.321314690038</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>1762.321314690038</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>1762.321314690038</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>1770.589414690038</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>1770.589414690038</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>1770.589414690038</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>1805.506814690038</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>1740.318614690038</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>1660.407814690038</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>1660.407814690038</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>1660.407814690038</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>1660.407814690038</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>1705.945014690038</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>1705.945014690038</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>1743.693514690038</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>1953.902214690038</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>1900.547954837951</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>2054.941054837951</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>2033.618954837951</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>2038.545554837951</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>2036.298254837951</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>2029.834954837951</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>2015.767054837951</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>2015.790454837951</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>2011.957454837951</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>2011.957454837951</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>2015.562054837951</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>2015.562054837951</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>2015.562054837951</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>2018.240254837951</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>2014.987854837951</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>2014.987854837951</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>2014.987854837951</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>2014.987854837951</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>2070.711954837951</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>2067.513154837951</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>1997.167854837951</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>2027.997854837951</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>1979.576454837951</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>1954.366354837951</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>1955.296054837951</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>1823.296254837951</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>1818.716254837951</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>1787.075954837951</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>1787.075954837951</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>1787.075954837951</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>1792.443454837951</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>1772.736354837951</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>1592.729154837951</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>1640.479154837951</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>1582.676053085428</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>1853.083651332906</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>1853.083651332906</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>1853.083651332906</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>1853.083651332906</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>1853.083651332906</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>2148.586051332906</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>1589.782751332906</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>1595.527851332906</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>1587.456251332906</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>1589.674953558661</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>1589.674953558661</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>1729.875753558661</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>1662.148253558661</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>1666.876453558661</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>1654.245153558661</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>1654.245153558661</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>1654.245153558661</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>1654.245153558661</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>1369.483053558661</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>1214.279653558661</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>1214.279653558661</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>1215.605553558661</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>1215.605553558661</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>1228.977353558661</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>1228.977353558661</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>1178.977353558661</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>1178.977353558661</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>1149.436453558661</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>1223.452253558661</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>1138.805753558661</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>1156.757353558661</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>1138.144553558661</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>1138.144553558661</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>1138.144553558661</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>1138.144553558661</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>1100.880253558661</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>1074.846453558661</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>1106.562153558661</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>1004.763753558661</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>1004.763753558661</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>1008.639753558661</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>1008.639753558661</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>1008.639753558661</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>899.5396535586606</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>1099.232853558661</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>1078.648453558661</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>1079.484253558661</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>1049.869353558661</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>1132.540353558661</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>1149.223163728152</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>1144.843446717023</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>1144.843446717023</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>1144.843446717023</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>1122.225846717023</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>1151.803046717023</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>1143.479046717023</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>1147.998046717023</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>1147.774746717023</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>1013.083546717023</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>1013.083546717023</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>1019.577646717023</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>1042.065570062709</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>1006.755570062709</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>986.4905700627088</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>986.5664700627088</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>986.5664700627088</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>986.5664700627088</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>952.3535700627089</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>974.3535700627089</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>974.3535700627089</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>974.3535700627089</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>974.3535700627089</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>974.3535700627089</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>745.3335700627089</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>745.3335700627089</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>749.9968700627089</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>749.9968700627089</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>749.9968700627089</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>804.938717601089</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>789.0509176010891</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>789.0509176010891</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>832.4933086063801</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>627.5033086063801</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>644.0254086063801</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>644.0254086063801</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>644.0254086063801</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>627.300053579925</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>627.300053579925</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>570.1114535799251</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>570.1114535799251</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>606.0528535799251</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>606.0528535799251</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>573.5920535799252</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>574.6920535799252</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>577.7424535799252</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>577.7424535799252</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>557.4427535799251</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>557.4427535799251</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>702.7572535799252</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>651.9206535799252</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>651.9206535799252</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>657.1318535799252</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>590.74865188501</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>649.1595518850099</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>649.1595518850099</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>649.1595518850099</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>648.51265188501</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>649.37595188501</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>632.9811518850099</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>152.91345188501</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>93.36385135366035</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -37147,11 +37147,17 @@
         <v>-1954.675550511521</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>185000</v>
+      </c>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37184,7 +37190,11 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37221,7 +37231,7 @@
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1116" t="n">
@@ -37642,11 +37652,9 @@
         <v>-1671.299190262705</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>185800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -37681,11 +37689,9 @@
         <v>-1629.468790262705</v>
       </c>
       <c r="H1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>185900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -37720,11 +37726,9 @@
         <v>-1629.468790262705</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38536,18 +38540,16 @@
         <v>-1295.695523106672</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1151" t="inlineStr"/>
       <c r="M1151" t="inlineStr"/>
     </row>
     <row r="1152">
@@ -38573,15 +38575,11 @@
         <v>-1321.164923106671</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38610,15 +38608,11 @@
         <v>-1324.247623106671</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38647,15 +38641,11 @@
         <v>-1391.152323106671</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38684,15 +38674,11 @@
         <v>-1377.850423106672</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38721,15 +38707,11 @@
         <v>-1418.283223106672</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38758,15 +38740,11 @@
         <v>-1392.558323106672</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38799,11 +38777,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38836,11 +38810,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38873,11 +38843,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38910,11 +38876,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38947,11 +38909,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38984,11 +38942,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39017,15 +38971,11 @@
         <v>-979.2076914212948</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39054,15 +39004,11 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39091,15 +39037,11 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39128,15 +39070,11 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39165,15 +39103,11 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39202,15 +39136,11 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39239,15 +39169,11 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39276,15 +39202,11 @@
         <v>-1077.171391421295</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39313,15 +39235,11 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39350,15 +39268,11 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39387,15 +39301,11 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39424,15 +39334,11 @@
         <v>-1035.295391421295</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39461,15 +39367,11 @@
         <v>-988.1446914212951</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39498,15 +39400,11 @@
         <v>-994.4878914212951</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39539,11 +39437,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39576,11 +39470,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39613,17 +39503,13 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
       <c r="M1180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ETH.xlsx
+++ b/BackTest/2020-01-21 BackTest ETH.xlsx
@@ -8569,7 +8569,7 @@
         <v>748.5492236319417</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>480.5341559817836</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>494.4861844477825</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>421.0651844477825</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>421.9764844477825</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>404.6907844477824</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>515.6424844477824</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>505.7595844477824</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>507.6615844477824</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>531.9024844477824</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>534.7136844477824</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>514.1417844477824</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>515.6524844477823</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>690.2565844477823</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>691.8565844477823</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>612.7786844477823</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>614.4581844477823</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>569.0405983731632</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>564.4940983731633</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>446.6019983731633</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>252.4279983731633</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-220.8598016268367</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-260.0208016268367</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-230.0208016268367</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-257.5208016268367</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-252.3098016268367</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-259.9453016268367</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-476.9991016268367</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-395.6272016268367</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-410.0287016268367</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-451.3167016268367</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-428.8255016268367</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-428.5258016268368</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-434.7084016268367</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-535.345103138542</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-553.185803138542</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-508.9403533747625</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-532.3761533747625</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-488.5732533747624</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-467.8534533747624</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-423.2927533747624</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-463.4347946745528</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-648.4056207478512</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-655.9056207478512</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-695.5711207478512</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-744.8663207478512</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-638.9970207478513</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-674.4370207478512</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-683.866720746968</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-710.741220746968</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-619.7411562334145</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-747.0781562334145</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>2053.337462355365</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>2096.959778144839</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>2119.638878144839</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>2145.963778144839</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>2137.723778144839</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>2466.02342551326</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>2509.770046565892</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>2499.891250403957</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>2489.352750403957</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>2540.212264441811</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>2500.158964441811</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>2532.515000066156</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>2509.111800066155</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>2423.089000066155</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>2373.941100066155</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>2358.915314690037</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>2328.943814690037</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>2329.095214690038</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>2364.193914690038</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>2354.618714690037</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>2343.622114690038</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>2336.143614690037</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>2379.649914690037</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>2379.986414690037</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>2379.855614690037</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>2381.480914690037</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>2416.981114690037</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>2389.504814690038</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>2388.550214690038</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>2408.149214690038</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>2205.287314690038</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>2194.412314690038</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>2185.659714690038</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>2128.458614690038</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>2125.433714690038</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -37147,17 +37147,11 @@
         <v>-1954.675550511521</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37190,11 +37184,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37223,17 +37213,11 @@
         <v>-1852.845050511521</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>185000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37262,17 +37246,11 @@
         <v>-1869.840250511521</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>185200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37309,7 +37287,7 @@
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1118" t="n">
@@ -37652,9 +37630,11 @@
         <v>-1671.299190262705</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>185800</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -37689,9 +37669,11 @@
         <v>-1629.468790262705</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>185900</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38540,16 +38522,18 @@
         <v>-1295.695523106672</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
       <c r="M1151" t="inlineStr"/>
     </row>
     <row r="1152">
@@ -38575,11 +38559,15 @@
         <v>-1321.164923106671</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38608,11 +38596,15 @@
         <v>-1324.247623106671</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38641,11 +38633,15 @@
         <v>-1391.152323106671</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38674,11 +38670,15 @@
         <v>-1377.850423106672</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38707,11 +38707,15 @@
         <v>-1418.283223106672</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38740,11 +38744,15 @@
         <v>-1392.558323106672</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38777,7 +38785,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38810,7 +38822,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38843,7 +38859,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38876,7 +38896,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38909,7 +38933,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38942,7 +38970,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38971,11 +39003,15 @@
         <v>-979.2076914212948</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39004,11 +39040,15 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39037,11 +39077,15 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39070,11 +39114,15 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39103,11 +39151,15 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39136,11 +39188,15 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39169,11 +39225,15 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39202,11 +39262,15 @@
         <v>-1077.171391421295</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39235,11 +39299,15 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39268,11 +39336,15 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39301,11 +39373,15 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39334,11 +39410,15 @@
         <v>-1035.295391421295</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39367,11 +39447,15 @@
         <v>-988.1446914212951</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39400,11 +39484,15 @@
         <v>-994.4878914212951</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39437,7 +39525,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39470,7 +39562,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39503,7 +39599,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
